--- a/Software/Arduino/LDR_TEEMP/Calibracao_modulo.xlsx
+++ b/Software/Arduino/LDR_TEEMP/Calibracao_modulo.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="450" windowWidth="20490" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -476,6 +476,8 @@
         <c:axId val="895890032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="700"/>
+          <c:min val="500"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -538,6 +540,7 @@
         <c:axId val="895891696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="300"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1497,8 +1500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
